--- a/Shot25/info.xlsx
+++ b/Shot25/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Fast_Frame_Front_interpretator\Shot25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF54E79-7E84-4AC4-ABE6-86DC085ACBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186183E-5C38-474C-AC52-378442D2A0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>N_shot</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>_</t>
-  </si>
-  <si>
-    <t>um</t>
   </si>
   <si>
     <t>mm</t>
@@ -410,7 +407,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,18 +418,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>45225</v>
@@ -457,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -467,8 +464,8 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>15</v>
+      <c r="B5" s="1">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -476,13 +473,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,7 +490,7 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,7 +512,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,7 +523,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -556,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>39188.5</v>
+        <v>32000</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
